--- a/54_COVID_svod.xlsx
+++ b/54_COVID_svod.xlsx
@@ -5,7 +5,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1 - Экстренные извещения" sheetId="1" r:id="rId4"/>
+    <sheet name="svod" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
-    <t>Экстренные извещения</t>
+    <t>Свод 54 COVID 19</t>
   </si>
   <si>
     <t>№ п/п</t>
@@ -41,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -51,6 +51,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -64,7 +69,7 @@
       <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,12 +84,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -96,14 +107,111 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -115,10 +223,10 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -127,103 +235,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -233,47 +281,53 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -293,9 +347,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffc8c8c8"/>
       <rgbColor rgb="fffdad00"/>
-      <rgbColor rgb="ffc8c8c8"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff89847f"/>
       <rgbColor rgb="fff7f7f6"/>
     </indexedColors>
@@ -314,10 +369,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -494,11 +549,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -507,7 +565,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -522,19 +580,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -782,12 +840,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1078,7 +1136,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1356,11 +1414,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:F326"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1372,3271 +1428,3271 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="32.45" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="20.2" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" ht="20.2" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" ht="20.2" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" ht="20.2" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" ht="20.2" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" ht="20.2" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" ht="20.2" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" ht="20.2" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" ht="20.2" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" ht="20.2" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" ht="20.2" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="20.2" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" ht="20.2" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" ht="20.2" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" ht="20.2" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" ht="20.2" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" ht="20.2" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" ht="20.2" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" ht="20.2" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" ht="20.2" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" ht="20.2" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" ht="20.2" customHeight="1">
-      <c r="A29" s="9">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" ht="20.2" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" ht="20.2" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" ht="20.2" customHeight="1">
-      <c r="A32" s="9">
+      <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" ht="20.2" customHeight="1">
-      <c r="A33" s="9">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" ht="20.2" customHeight="1">
-      <c r="A34" s="9">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" ht="20.2" customHeight="1">
-      <c r="A35" s="9">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" ht="20.2" customHeight="1">
-      <c r="A36" s="9">
+      <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" ht="20.2" customHeight="1">
-      <c r="A37" s="9">
+      <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" ht="20.2" customHeight="1">
-      <c r="A38" s="9">
+      <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" ht="20.2" customHeight="1">
-      <c r="A39" s="9">
+      <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" ht="20.2" customHeight="1">
-      <c r="A40" s="9">
+      <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" ht="20.2" customHeight="1">
-      <c r="A41" s="9">
+      <c r="A41" s="11">
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" ht="20.2" customHeight="1">
-      <c r="A42" s="9">
+      <c r="A42" s="11">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" ht="20.2" customHeight="1">
-      <c r="A43" s="9">
+      <c r="A43" s="11">
         <v>41</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" ht="20.2" customHeight="1">
-      <c r="A44" s="9">
+      <c r="A44" s="11">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" ht="20.2" customHeight="1">
-      <c r="A45" s="9">
+      <c r="A45" s="11">
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" ht="20.2" customHeight="1">
-      <c r="A46" s="9">
+      <c r="A46" s="11">
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" ht="20.2" customHeight="1">
-      <c r="A47" s="9">
+      <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" ht="20.2" customHeight="1">
-      <c r="A48" s="9">
+      <c r="A48" s="11">
         <v>46</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" ht="20.2" customHeight="1">
-      <c r="A49" s="9">
+      <c r="A49" s="11">
         <v>47</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" ht="20.2" customHeight="1">
-      <c r="A50" s="9">
+      <c r="A50" s="11">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" ht="20.2" customHeight="1">
-      <c r="A51" s="9">
+      <c r="A51" s="11">
         <v>49</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" ht="20.2" customHeight="1">
-      <c r="A52" s="9">
+      <c r="A52" s="11">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" ht="20.2" customHeight="1">
-      <c r="A53" s="9">
+      <c r="A53" s="11">
         <v>51</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" ht="20.2" customHeight="1">
-      <c r="A54" s="9">
+      <c r="A54" s="11">
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" ht="20.2" customHeight="1">
-      <c r="A55" s="9">
+      <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" ht="20.2" customHeight="1">
-      <c r="A56" s="9">
+      <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" ht="20.2" customHeight="1">
-      <c r="A57" s="9">
+      <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" ht="20.2" customHeight="1">
-      <c r="A58" s="9">
+      <c r="A58" s="11">
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" ht="20.2" customHeight="1">
-      <c r="A59" s="9">
+      <c r="A59" s="11">
         <v>57</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60" ht="20.2" customHeight="1">
-      <c r="A60" s="9">
+      <c r="A60" s="11">
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" ht="20.2" customHeight="1">
-      <c r="A61" s="9">
+      <c r="A61" s="11">
         <v>59</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" ht="20.2" customHeight="1">
-      <c r="A62" s="9">
+      <c r="A62" s="11">
         <v>60</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" ht="20.2" customHeight="1">
-      <c r="A63" s="9">
+      <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" ht="20.2" customHeight="1">
-      <c r="A64" s="9">
+      <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" ht="20.2" customHeight="1">
-      <c r="A65" s="9">
+      <c r="A65" s="11">
         <v>63</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
     </row>
     <row r="66" ht="20.2" customHeight="1">
-      <c r="A66" s="9">
+      <c r="A66" s="11">
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" ht="20.2" customHeight="1">
-      <c r="A67" s="9">
+      <c r="A67" s="11">
         <v>65</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" ht="20.2" customHeight="1">
-      <c r="A68" s="9">
+      <c r="A68" s="11">
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" ht="20.2" customHeight="1">
-      <c r="A69" s="9">
+      <c r="A69" s="11">
         <v>67</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="70" ht="20.2" customHeight="1">
-      <c r="A70" s="9">
+      <c r="A70" s="11">
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" ht="20.2" customHeight="1">
-      <c r="A71" s="9">
+      <c r="A71" s="11">
         <v>69</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
     </row>
     <row r="72" ht="20.2" customHeight="1">
-      <c r="A72" s="9">
+      <c r="A72" s="11">
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" ht="20.2" customHeight="1">
-      <c r="A73" s="9">
+      <c r="A73" s="11">
         <v>71</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
     </row>
     <row r="74" ht="20.2" customHeight="1">
-      <c r="A74" s="9">
+      <c r="A74" s="11">
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" ht="20.2" customHeight="1">
-      <c r="A75" s="9">
+      <c r="A75" s="11">
         <v>73</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76" ht="20.2" customHeight="1">
-      <c r="A76" s="9">
+      <c r="A76" s="11">
         <v>74</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" ht="20.2" customHeight="1">
-      <c r="A77" s="9">
+      <c r="A77" s="11">
         <v>75</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
     </row>
     <row r="78" ht="20.2" customHeight="1">
-      <c r="A78" s="9">
+      <c r="A78" s="11">
         <v>76</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" ht="20.2" customHeight="1">
-      <c r="A79" s="9">
+      <c r="A79" s="11">
         <v>77</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
     </row>
     <row r="80" ht="20.2" customHeight="1">
-      <c r="A80" s="9">
+      <c r="A80" s="11">
         <v>78</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" ht="20.2" customHeight="1">
-      <c r="A81" s="9">
+      <c r="A81" s="11">
         <v>79</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
     </row>
     <row r="82" ht="20.2" customHeight="1">
-      <c r="A82" s="9">
+      <c r="A82" s="11">
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" ht="20.2" customHeight="1">
-      <c r="A83" s="9">
+      <c r="A83" s="11">
         <v>81</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
     </row>
     <row r="84" ht="20.2" customHeight="1">
-      <c r="A84" s="9">
+      <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
     </row>
     <row r="85" ht="20.2" customHeight="1">
-      <c r="A85" s="9">
+      <c r="A85" s="11">
         <v>83</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
     </row>
     <row r="86" ht="20.2" customHeight="1">
-      <c r="A86" s="9">
+      <c r="A86" s="11">
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
     </row>
     <row r="87" ht="20.2" customHeight="1">
-      <c r="A87" s="9">
+      <c r="A87" s="11">
         <v>85</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
     </row>
     <row r="88" ht="20.2" customHeight="1">
-      <c r="A88" s="9">
+      <c r="A88" s="11">
         <v>86</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
     </row>
     <row r="89" ht="20.2" customHeight="1">
-      <c r="A89" s="9">
+      <c r="A89" s="11">
         <v>87</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90" ht="20.2" customHeight="1">
-      <c r="A90" s="9">
+      <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
     </row>
     <row r="91" ht="20.2" customHeight="1">
-      <c r="A91" s="9">
+      <c r="A91" s="11">
         <v>89</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
     </row>
     <row r="92" ht="20.2" customHeight="1">
-      <c r="A92" s="9">
+      <c r="A92" s="11">
         <v>90</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
     </row>
     <row r="93" ht="20.2" customHeight="1">
-      <c r="A93" s="9">
+      <c r="A93" s="11">
         <v>91</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94" ht="20.2" customHeight="1">
-      <c r="A94" s="9">
+      <c r="A94" s="11">
         <v>92</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
     </row>
     <row r="95" ht="20.2" customHeight="1">
-      <c r="A95" s="9">
+      <c r="A95" s="11">
         <v>93</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
     </row>
     <row r="96" ht="20.2" customHeight="1">
-      <c r="A96" s="9">
+      <c r="A96" s="11">
         <v>94</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
     </row>
     <row r="97" ht="20.2" customHeight="1">
-      <c r="A97" s="9">
+      <c r="A97" s="11">
         <v>95</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
     </row>
     <row r="98" ht="20.2" customHeight="1">
-      <c r="A98" s="9">
+      <c r="A98" s="11">
         <v>96</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
     </row>
     <row r="99" ht="20.2" customHeight="1">
-      <c r="A99" s="9">
+      <c r="A99" s="11">
         <v>97</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
     </row>
     <row r="100" ht="20.2" customHeight="1">
-      <c r="A100" s="9">
+      <c r="A100" s="11">
         <v>98</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
     </row>
     <row r="101" ht="20.2" customHeight="1">
-      <c r="A101" s="9">
+      <c r="A101" s="11">
         <v>99</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
     </row>
     <row r="102" ht="20.2" customHeight="1">
-      <c r="A102" s="9">
+      <c r="A102" s="11">
         <v>100</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" ht="20.2" customHeight="1">
-      <c r="A103" s="9">
+      <c r="A103" s="11">
         <v>101</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
     </row>
     <row r="104" ht="20.2" customHeight="1">
-      <c r="A104" s="9">
+      <c r="A104" s="11">
         <v>102</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
     </row>
     <row r="105" ht="20.2" customHeight="1">
-      <c r="A105" s="9">
+      <c r="A105" s="11">
         <v>103</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
     </row>
     <row r="106" ht="20.2" customHeight="1">
-      <c r="A106" s="9">
+      <c r="A106" s="11">
         <v>104</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
     </row>
     <row r="107" ht="20.2" customHeight="1">
-      <c r="A107" s="9">
+      <c r="A107" s="11">
         <v>105</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
     </row>
     <row r="108" ht="20.2" customHeight="1">
-      <c r="A108" s="9">
+      <c r="A108" s="11">
         <v>106</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" ht="20.2" customHeight="1">
-      <c r="A109" s="9">
+      <c r="A109" s="11">
         <v>107</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
     </row>
     <row r="110" ht="20.2" customHeight="1">
-      <c r="A110" s="9">
+      <c r="A110" s="11">
         <v>108</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
     </row>
     <row r="111" ht="20.2" customHeight="1">
-      <c r="A111" s="9">
+      <c r="A111" s="11">
         <v>109</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112" ht="20.2" customHeight="1">
-      <c r="A112" s="9">
+      <c r="A112" s="11">
         <v>110</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
     </row>
     <row r="113" ht="20.2" customHeight="1">
-      <c r="A113" s="9">
+      <c r="A113" s="11">
         <v>111</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114" ht="20.2" customHeight="1">
-      <c r="A114" s="9">
+      <c r="A114" s="11">
         <v>112</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" ht="20.2" customHeight="1">
-      <c r="A115" s="9">
+      <c r="A115" s="11">
         <v>113</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
     </row>
     <row r="116" ht="20.2" customHeight="1">
-      <c r="A116" s="9">
+      <c r="A116" s="11">
         <v>114</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="117" ht="20.2" customHeight="1">
-      <c r="A117" s="9">
+      <c r="A117" s="11">
         <v>115</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
     </row>
     <row r="118" ht="20.2" customHeight="1">
-      <c r="A118" s="9">
+      <c r="A118" s="11">
         <v>116</v>
       </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
     </row>
     <row r="119" ht="20.2" customHeight="1">
-      <c r="A119" s="9">
+      <c r="A119" s="11">
         <v>117</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
     </row>
     <row r="120" ht="20.2" customHeight="1">
-      <c r="A120" s="9">
+      <c r="A120" s="11">
         <v>118</v>
       </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
     </row>
     <row r="121" ht="20.2" customHeight="1">
-      <c r="A121" s="9">
+      <c r="A121" s="11">
         <v>119</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
     </row>
     <row r="122" ht="20.2" customHeight="1">
-      <c r="A122" s="9">
+      <c r="A122" s="11">
         <v>120</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
     </row>
     <row r="123" ht="20.2" customHeight="1">
-      <c r="A123" s="9">
+      <c r="A123" s="11">
         <v>121</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
     </row>
     <row r="124" ht="20.2" customHeight="1">
-      <c r="A124" s="9">
+      <c r="A124" s="11">
         <v>122</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
     </row>
     <row r="125" ht="20.2" customHeight="1">
-      <c r="A125" s="9">
+      <c r="A125" s="11">
         <v>123</v>
       </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
     </row>
     <row r="126" ht="20.2" customHeight="1">
-      <c r="A126" s="9">
+      <c r="A126" s="11">
         <v>124</v>
       </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
     </row>
     <row r="127" ht="20.2" customHeight="1">
-      <c r="A127" s="9">
+      <c r="A127" s="11">
         <v>125</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
     </row>
     <row r="128" ht="20.2" customHeight="1">
-      <c r="A128" s="9">
+      <c r="A128" s="11">
         <v>126</v>
       </c>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
     </row>
     <row r="129" ht="20.2" customHeight="1">
-      <c r="A129" s="9">
+      <c r="A129" s="11">
         <v>127</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
     </row>
     <row r="130" ht="20.2" customHeight="1">
-      <c r="A130" s="9">
+      <c r="A130" s="11">
         <v>128</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
     </row>
     <row r="131" ht="20.2" customHeight="1">
-      <c r="A131" s="9">
+      <c r="A131" s="11">
         <v>129</v>
       </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
     </row>
     <row r="132" ht="20.2" customHeight="1">
-      <c r="A132" s="9">
+      <c r="A132" s="11">
         <v>130</v>
       </c>
-      <c r="B132" s="10"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
     </row>
     <row r="133" ht="20.2" customHeight="1">
-      <c r="A133" s="9">
+      <c r="A133" s="11">
         <v>131</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
     </row>
     <row r="134" ht="20.2" customHeight="1">
-      <c r="A134" s="9">
+      <c r="A134" s="11">
         <v>132</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
     </row>
     <row r="135" ht="20.2" customHeight="1">
-      <c r="A135" s="9">
+      <c r="A135" s="11">
         <v>133</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
     </row>
     <row r="136" ht="20.2" customHeight="1">
-      <c r="A136" s="9">
+      <c r="A136" s="11">
         <v>134</v>
       </c>
-      <c r="B136" s="10"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
     </row>
     <row r="137" ht="20.2" customHeight="1">
-      <c r="A137" s="9">
+      <c r="A137" s="11">
         <v>135</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
     </row>
     <row r="138" ht="20.2" customHeight="1">
-      <c r="A138" s="9">
+      <c r="A138" s="11">
         <v>136</v>
       </c>
-      <c r="B138" s="10"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
     </row>
     <row r="139" ht="20.2" customHeight="1">
-      <c r="A139" s="9">
+      <c r="A139" s="11">
         <v>137</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
     </row>
     <row r="140" ht="20.2" customHeight="1">
-      <c r="A140" s="9">
+      <c r="A140" s="11">
         <v>138</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
     </row>
     <row r="141" ht="20.2" customHeight="1">
-      <c r="A141" s="9">
+      <c r="A141" s="11">
         <v>139</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
     </row>
     <row r="142" ht="20.2" customHeight="1">
-      <c r="A142" s="9">
+      <c r="A142" s="11">
         <v>140</v>
       </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
     </row>
     <row r="143" ht="20.2" customHeight="1">
-      <c r="A143" s="9">
+      <c r="A143" s="11">
         <v>141</v>
       </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
     </row>
     <row r="144" ht="20.2" customHeight="1">
-      <c r="A144" s="9">
+      <c r="A144" s="11">
         <v>142</v>
       </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
     </row>
     <row r="145" ht="20.2" customHeight="1">
-      <c r="A145" s="9">
+      <c r="A145" s="11">
         <v>143</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
     </row>
     <row r="146" ht="20.2" customHeight="1">
-      <c r="A146" s="9">
+      <c r="A146" s="11">
         <v>144</v>
       </c>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
     </row>
     <row r="147" ht="20.2" customHeight="1">
-      <c r="A147" s="9">
+      <c r="A147" s="11">
         <v>145</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
     </row>
     <row r="148" ht="20.2" customHeight="1">
-      <c r="A148" s="9">
+      <c r="A148" s="11">
         <v>146</v>
       </c>
-      <c r="B148" s="10"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
     </row>
     <row r="149" ht="20.2" customHeight="1">
-      <c r="A149" s="9">
+      <c r="A149" s="11">
         <v>147</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
     </row>
     <row r="150" ht="20.2" customHeight="1">
-      <c r="A150" s="9">
+      <c r="A150" s="11">
         <v>148</v>
       </c>
-      <c r="B150" s="10"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
     </row>
     <row r="151" ht="20.2" customHeight="1">
-      <c r="A151" s="9">
+      <c r="A151" s="11">
         <v>149</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
     </row>
     <row r="152" ht="20.2" customHeight="1">
-      <c r="A152" s="9">
+      <c r="A152" s="11">
         <v>150</v>
       </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
     </row>
     <row r="153" ht="20.2" customHeight="1">
-      <c r="A153" s="9">
+      <c r="A153" s="11">
         <v>151</v>
       </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
     </row>
     <row r="154" ht="20.2" customHeight="1">
-      <c r="A154" s="9">
+      <c r="A154" s="11">
         <v>152</v>
       </c>
-      <c r="B154" s="10"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
     </row>
     <row r="155" ht="20.2" customHeight="1">
-      <c r="A155" s="9">
+      <c r="A155" s="11">
         <v>153</v>
       </c>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
     </row>
     <row r="156" ht="20.2" customHeight="1">
-      <c r="A156" s="9">
+      <c r="A156" s="11">
         <v>154</v>
       </c>
-      <c r="B156" s="10"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
     </row>
     <row r="157" ht="20.2" customHeight="1">
-      <c r="A157" s="9">
+      <c r="A157" s="11">
         <v>155</v>
       </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
     </row>
     <row r="158" ht="20.2" customHeight="1">
-      <c r="A158" s="9">
+      <c r="A158" s="11">
         <v>156</v>
       </c>
-      <c r="B158" s="10"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
     </row>
     <row r="159" ht="20.2" customHeight="1">
-      <c r="A159" s="9">
+      <c r="A159" s="11">
         <v>157</v>
       </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
     </row>
     <row r="160" ht="20.2" customHeight="1">
-      <c r="A160" s="9">
+      <c r="A160" s="11">
         <v>158</v>
       </c>
-      <c r="B160" s="10"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" ht="20.2" customHeight="1">
-      <c r="A161" s="9">
+      <c r="A161" s="11">
         <v>159</v>
       </c>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
     </row>
     <row r="162" ht="20.2" customHeight="1">
-      <c r="A162" s="9">
+      <c r="A162" s="11">
         <v>160</v>
       </c>
-      <c r="B162" s="10"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
     </row>
     <row r="163" ht="20.2" customHeight="1">
-      <c r="A163" s="9">
+      <c r="A163" s="11">
         <v>161</v>
       </c>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
     </row>
     <row r="164" ht="20.2" customHeight="1">
-      <c r="A164" s="9">
+      <c r="A164" s="11">
         <v>162</v>
       </c>
-      <c r="B164" s="10"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
     </row>
     <row r="165" ht="20.2" customHeight="1">
-      <c r="A165" s="9">
+      <c r="A165" s="11">
         <v>163</v>
       </c>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
     </row>
     <row r="166" ht="20.2" customHeight="1">
-      <c r="A166" s="9">
+      <c r="A166" s="11">
         <v>164</v>
       </c>
-      <c r="B166" s="10"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
     </row>
     <row r="167" ht="20.2" customHeight="1">
-      <c r="A167" s="9">
+      <c r="A167" s="11">
         <v>165</v>
       </c>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
     </row>
     <row r="168" ht="20.2" customHeight="1">
-      <c r="A168" s="9">
+      <c r="A168" s="11">
         <v>166</v>
       </c>
-      <c r="B168" s="10"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
     </row>
     <row r="169" ht="20.2" customHeight="1">
-      <c r="A169" s="9">
+      <c r="A169" s="11">
         <v>167</v>
       </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
     </row>
     <row r="170" ht="20.2" customHeight="1">
-      <c r="A170" s="9">
+      <c r="A170" s="11">
         <v>168</v>
       </c>
-      <c r="B170" s="10"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
     </row>
     <row r="171" ht="20.2" customHeight="1">
-      <c r="A171" s="9">
+      <c r="A171" s="11">
         <v>169</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
     </row>
     <row r="172" ht="20.2" customHeight="1">
-      <c r="A172" s="9">
+      <c r="A172" s="11">
         <v>170</v>
       </c>
-      <c r="B172" s="10"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
     </row>
     <row r="173" ht="20.2" customHeight="1">
-      <c r="A173" s="9">
+      <c r="A173" s="11">
         <v>171</v>
       </c>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
     </row>
     <row r="174" ht="20.2" customHeight="1">
-      <c r="A174" s="9">
+      <c r="A174" s="11">
         <v>172</v>
       </c>
-      <c r="B174" s="10"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
     </row>
     <row r="175" ht="20.2" customHeight="1">
-      <c r="A175" s="9">
+      <c r="A175" s="11">
         <v>173</v>
       </c>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
     </row>
     <row r="176" ht="20.2" customHeight="1">
-      <c r="A176" s="9">
+      <c r="A176" s="11">
         <v>174</v>
       </c>
-      <c r="B176" s="10"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
     </row>
     <row r="177" ht="20.2" customHeight="1">
-      <c r="A177" s="9">
+      <c r="A177" s="11">
         <v>175</v>
       </c>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
     </row>
     <row r="178" ht="20.2" customHeight="1">
-      <c r="A178" s="9">
+      <c r="A178" s="11">
         <v>176</v>
       </c>
-      <c r="B178" s="10"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
     </row>
     <row r="179" ht="20.2" customHeight="1">
-      <c r="A179" s="9">
+      <c r="A179" s="11">
         <v>177</v>
       </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
     </row>
     <row r="180" ht="20.2" customHeight="1">
-      <c r="A180" s="9">
+      <c r="A180" s="11">
         <v>178</v>
       </c>
-      <c r="B180" s="10"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
     </row>
     <row r="181" ht="20.2" customHeight="1">
-      <c r="A181" s="9">
+      <c r="A181" s="11">
         <v>179</v>
       </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
     </row>
     <row r="182" ht="20.2" customHeight="1">
-      <c r="A182" s="9">
+      <c r="A182" s="11">
         <v>180</v>
       </c>
-      <c r="B182" s="10"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="11"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
     </row>
     <row r="183" ht="20.2" customHeight="1">
-      <c r="A183" s="9">
+      <c r="A183" s="11">
         <v>181</v>
       </c>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
     </row>
     <row r="184" ht="20.2" customHeight="1">
-      <c r="A184" s="9">
+      <c r="A184" s="11">
         <v>182</v>
       </c>
-      <c r="B184" s="10"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
     </row>
     <row r="185" ht="20.2" customHeight="1">
-      <c r="A185" s="9">
+      <c r="A185" s="11">
         <v>183</v>
       </c>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
     </row>
     <row r="186" ht="20.2" customHeight="1">
-      <c r="A186" s="9">
+      <c r="A186" s="11">
         <v>184</v>
       </c>
-      <c r="B186" s="10"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
-      <c r="F186" s="11"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
     </row>
     <row r="187" ht="20.2" customHeight="1">
-      <c r="A187" s="9">
+      <c r="A187" s="11">
         <v>185</v>
       </c>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
     </row>
     <row r="188" ht="20.2" customHeight="1">
-      <c r="A188" s="9">
+      <c r="A188" s="11">
         <v>186</v>
       </c>
-      <c r="B188" s="10"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
     </row>
     <row r="189" ht="20.2" customHeight="1">
-      <c r="A189" s="9">
+      <c r="A189" s="11">
         <v>187</v>
       </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
     </row>
     <row r="190" ht="20.2" customHeight="1">
-      <c r="A190" s="9">
+      <c r="A190" s="11">
         <v>188</v>
       </c>
-      <c r="B190" s="10"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
     </row>
     <row r="191" ht="20.2" customHeight="1">
-      <c r="A191" s="9">
+      <c r="A191" s="11">
         <v>189</v>
       </c>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
     </row>
     <row r="192" ht="20.2" customHeight="1">
-      <c r="A192" s="9">
+      <c r="A192" s="11">
         <v>190</v>
       </c>
-      <c r="B192" s="10"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="11"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
     </row>
     <row r="193" ht="20.2" customHeight="1">
-      <c r="A193" s="9">
+      <c r="A193" s="11">
         <v>191</v>
       </c>
-      <c r="B193" s="12"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
     </row>
     <row r="194" ht="20.2" customHeight="1">
-      <c r="A194" s="9">
+      <c r="A194" s="11">
         <v>192</v>
       </c>
-      <c r="B194" s="10"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
-      <c r="F194" s="11"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
     </row>
     <row r="195" ht="20.2" customHeight="1">
-      <c r="A195" s="9">
+      <c r="A195" s="11">
         <v>193</v>
       </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
     </row>
     <row r="196" ht="20.2" customHeight="1">
-      <c r="A196" s="9">
+      <c r="A196" s="11">
         <v>194</v>
       </c>
-      <c r="B196" s="10"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
     </row>
     <row r="197" ht="20.2" customHeight="1">
-      <c r="A197" s="9">
+      <c r="A197" s="11">
         <v>195</v>
       </c>
-      <c r="B197" s="12"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
     </row>
     <row r="198" ht="20.2" customHeight="1">
-      <c r="A198" s="9">
+      <c r="A198" s="11">
         <v>196</v>
       </c>
-      <c r="B198" s="10"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
-      <c r="F198" s="11"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
     </row>
     <row r="199" ht="20.2" customHeight="1">
-      <c r="A199" s="9">
+      <c r="A199" s="11">
         <v>197</v>
       </c>
-      <c r="B199" s="12"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
     </row>
     <row r="200" ht="20.2" customHeight="1">
-      <c r="A200" s="9">
+      <c r="A200" s="11">
         <v>198</v>
       </c>
-      <c r="B200" s="10"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
     </row>
     <row r="201" ht="20.2" customHeight="1">
-      <c r="A201" s="9">
+      <c r="A201" s="11">
         <v>199</v>
       </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
     </row>
     <row r="202" ht="20.2" customHeight="1">
-      <c r="A202" s="9">
+      <c r="A202" s="11">
         <v>200</v>
       </c>
-      <c r="B202" s="10"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="11"/>
-      <c r="F202" s="11"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
     </row>
     <row r="203" ht="20.2" customHeight="1">
-      <c r="A203" s="9">
+      <c r="A203" s="11">
         <v>201</v>
       </c>
-      <c r="B203" s="12"/>
-      <c r="C203" s="13"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
     </row>
     <row r="204" ht="20.2" customHeight="1">
-      <c r="A204" s="9">
+      <c r="A204" s="11">
         <v>202</v>
       </c>
-      <c r="B204" s="10"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
-      <c r="F204" s="11"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
     </row>
     <row r="205" ht="20.2" customHeight="1">
-      <c r="A205" s="9">
+      <c r="A205" s="11">
         <v>203</v>
       </c>
-      <c r="B205" s="12"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
     </row>
     <row r="206" ht="20.2" customHeight="1">
-      <c r="A206" s="9">
+      <c r="A206" s="11">
         <v>204</v>
       </c>
-      <c r="B206" s="10"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
-      <c r="F206" s="11"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
     </row>
     <row r="207" ht="20.2" customHeight="1">
-      <c r="A207" s="9">
+      <c r="A207" s="11">
         <v>205</v>
       </c>
-      <c r="B207" s="12"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
     </row>
     <row r="208" ht="20.2" customHeight="1">
-      <c r="A208" s="9">
+      <c r="A208" s="11">
         <v>206</v>
       </c>
-      <c r="B208" s="10"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
-      <c r="F208" s="11"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
     </row>
     <row r="209" ht="20.2" customHeight="1">
-      <c r="A209" s="9">
+      <c r="A209" s="11">
         <v>207</v>
       </c>
-      <c r="B209" s="12"/>
-      <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
     </row>
     <row r="210" ht="20.2" customHeight="1">
-      <c r="A210" s="9">
+      <c r="A210" s="11">
         <v>208</v>
       </c>
-      <c r="B210" s="10"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
     </row>
     <row r="211" ht="20.2" customHeight="1">
-      <c r="A211" s="9">
+      <c r="A211" s="11">
         <v>209</v>
       </c>
-      <c r="B211" s="12"/>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
     </row>
     <row r="212" ht="20.2" customHeight="1">
-      <c r="A212" s="9">
+      <c r="A212" s="11">
         <v>210</v>
       </c>
-      <c r="B212" s="10"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="11"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
     </row>
     <row r="213" ht="20.2" customHeight="1">
-      <c r="A213" s="9">
+      <c r="A213" s="11">
         <v>211</v>
       </c>
-      <c r="B213" s="12"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
     </row>
     <row r="214" ht="20.2" customHeight="1">
-      <c r="A214" s="9">
+      <c r="A214" s="11">
         <v>212</v>
       </c>
-      <c r="B214" s="10"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
-      <c r="F214" s="11"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
     </row>
     <row r="215" ht="20.2" customHeight="1">
-      <c r="A215" s="9">
+      <c r="A215" s="11">
         <v>213</v>
       </c>
-      <c r="B215" s="12"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
     </row>
     <row r="216" ht="20.2" customHeight="1">
-      <c r="A216" s="9">
+      <c r="A216" s="11">
         <v>214</v>
       </c>
-      <c r="B216" s="10"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
-      <c r="F216" s="11"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
     </row>
     <row r="217" ht="20.2" customHeight="1">
-      <c r="A217" s="9">
+      <c r="A217" s="11">
         <v>215</v>
       </c>
-      <c r="B217" s="12"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="13"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
     </row>
     <row r="218" ht="20.2" customHeight="1">
-      <c r="A218" s="9">
+      <c r="A218" s="11">
         <v>216</v>
       </c>
-      <c r="B218" s="10"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
-      <c r="E218" s="11"/>
-      <c r="F218" s="11"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
     </row>
     <row r="219" ht="20.2" customHeight="1">
-      <c r="A219" s="9">
+      <c r="A219" s="11">
         <v>217</v>
       </c>
-      <c r="B219" s="12"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="13"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
     </row>
     <row r="220" ht="20.2" customHeight="1">
-      <c r="A220" s="9">
+      <c r="A220" s="11">
         <v>218</v>
       </c>
-      <c r="B220" s="10"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
-      <c r="F220" s="11"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
     </row>
     <row r="221" ht="20.2" customHeight="1">
-      <c r="A221" s="9">
+      <c r="A221" s="11">
         <v>219</v>
       </c>
-      <c r="B221" s="12"/>
-      <c r="C221" s="13"/>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
-      <c r="F221" s="13"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
     </row>
     <row r="222" ht="20.2" customHeight="1">
-      <c r="A222" s="9">
+      <c r="A222" s="11">
         <v>220</v>
       </c>
-      <c r="B222" s="10"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
-      <c r="F222" s="11"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
     </row>
     <row r="223" ht="20.2" customHeight="1">
-      <c r="A223" s="9">
+      <c r="A223" s="11">
         <v>221</v>
       </c>
-      <c r="B223" s="12"/>
-      <c r="C223" s="13"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
-      <c r="F223" s="13"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
     </row>
     <row r="224" ht="20.2" customHeight="1">
-      <c r="A224" s="9">
+      <c r="A224" s="11">
         <v>222</v>
       </c>
-      <c r="B224" s="10"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
-      <c r="E224" s="11"/>
-      <c r="F224" s="11"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
     </row>
     <row r="225" ht="20.2" customHeight="1">
-      <c r="A225" s="9">
+      <c r="A225" s="11">
         <v>223</v>
       </c>
-      <c r="B225" s="12"/>
-      <c r="C225" s="13"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
-      <c r="F225" s="13"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
     </row>
     <row r="226" ht="20.2" customHeight="1">
-      <c r="A226" s="9">
+      <c r="A226" s="11">
         <v>224</v>
       </c>
-      <c r="B226" s="10"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
-      <c r="F226" s="11"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
     </row>
     <row r="227" ht="20.2" customHeight="1">
-      <c r="A227" s="9">
+      <c r="A227" s="11">
         <v>225</v>
       </c>
-      <c r="B227" s="12"/>
-      <c r="C227" s="13"/>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
-      <c r="F227" s="13"/>
+      <c r="B227" s="14"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="15"/>
     </row>
     <row r="228" ht="20.2" customHeight="1">
-      <c r="A228" s="9">
+      <c r="A228" s="11">
         <v>226</v>
       </c>
-      <c r="B228" s="10"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
-      <c r="F228" s="11"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
     </row>
     <row r="229" ht="20.2" customHeight="1">
-      <c r="A229" s="9">
+      <c r="A229" s="11">
         <v>227</v>
       </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="13"/>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="13"/>
+      <c r="B229" s="14"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15"/>
+      <c r="F229" s="15"/>
     </row>
     <row r="230" ht="20.2" customHeight="1">
-      <c r="A230" s="9">
+      <c r="A230" s="11">
         <v>228</v>
       </c>
-      <c r="B230" s="10"/>
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
-      <c r="F230" s="11"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
     </row>
     <row r="231" ht="20.2" customHeight="1">
-      <c r="A231" s="9">
+      <c r="A231" s="11">
         <v>229</v>
       </c>
-      <c r="B231" s="12"/>
-      <c r="C231" s="13"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="15"/>
     </row>
     <row r="232" ht="20.2" customHeight="1">
-      <c r="A232" s="9">
+      <c r="A232" s="11">
         <v>230</v>
       </c>
-      <c r="B232" s="10"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
-      <c r="F232" s="11"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
     </row>
     <row r="233" ht="20.2" customHeight="1">
-      <c r="A233" s="9">
+      <c r="A233" s="11">
         <v>231</v>
       </c>
-      <c r="B233" s="12"/>
-      <c r="C233" s="13"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="13"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
     </row>
     <row r="234" ht="20.2" customHeight="1">
-      <c r="A234" s="9">
+      <c r="A234" s="11">
         <v>232</v>
       </c>
-      <c r="B234" s="10"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
-      <c r="F234" s="11"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
     </row>
     <row r="235" ht="20.2" customHeight="1">
-      <c r="A235" s="9">
+      <c r="A235" s="11">
         <v>233</v>
       </c>
-      <c r="B235" s="12"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
-      <c r="F235" s="13"/>
+      <c r="B235" s="14"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
     </row>
     <row r="236" ht="20.2" customHeight="1">
-      <c r="A236" s="9">
+      <c r="A236" s="11">
         <v>234</v>
       </c>
-      <c r="B236" s="10"/>
-      <c r="C236" s="11"/>
-      <c r="D236" s="11"/>
-      <c r="E236" s="11"/>
-      <c r="F236" s="11"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
     </row>
     <row r="237" ht="20.2" customHeight="1">
-      <c r="A237" s="9">
+      <c r="A237" s="11">
         <v>235</v>
       </c>
-      <c r="B237" s="12"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13"/>
-      <c r="F237" s="13"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
     </row>
     <row r="238" ht="20.2" customHeight="1">
-      <c r="A238" s="9">
+      <c r="A238" s="11">
         <v>236</v>
       </c>
-      <c r="B238" s="10"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
-      <c r="F238" s="11"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
     </row>
     <row r="239" ht="20.2" customHeight="1">
-      <c r="A239" s="9">
+      <c r="A239" s="11">
         <v>237</v>
       </c>
-      <c r="B239" s="12"/>
-      <c r="C239" s="13"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
-      <c r="F239" s="13"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
     </row>
     <row r="240" ht="20.2" customHeight="1">
-      <c r="A240" s="9">
+      <c r="A240" s="11">
         <v>238</v>
       </c>
-      <c r="B240" s="10"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
-      <c r="F240" s="11"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
     </row>
     <row r="241" ht="20.2" customHeight="1">
-      <c r="A241" s="9">
+      <c r="A241" s="11">
         <v>239</v>
       </c>
-      <c r="B241" s="12"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="13"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
     </row>
     <row r="242" ht="20.2" customHeight="1">
-      <c r="A242" s="9">
+      <c r="A242" s="11">
         <v>240</v>
       </c>
-      <c r="B242" s="10"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
-      <c r="F242" s="11"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
     </row>
     <row r="243" ht="20.2" customHeight="1">
-      <c r="A243" s="9">
+      <c r="A243" s="11">
         <v>241</v>
       </c>
-      <c r="B243" s="12"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
-      <c r="F243" s="13"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15"/>
     </row>
     <row r="244" ht="20.2" customHeight="1">
-      <c r="A244" s="9">
+      <c r="A244" s="11">
         <v>242</v>
       </c>
-      <c r="B244" s="10"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
-      <c r="F244" s="11"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
     </row>
     <row r="245" ht="20.2" customHeight="1">
-      <c r="A245" s="9">
+      <c r="A245" s="11">
         <v>243</v>
       </c>
-      <c r="B245" s="12"/>
-      <c r="C245" s="13"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13"/>
-      <c r="F245" s="13"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15"/>
     </row>
     <row r="246" ht="20.2" customHeight="1">
-      <c r="A246" s="9">
+      <c r="A246" s="11">
         <v>244</v>
       </c>
-      <c r="B246" s="10"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
-      <c r="F246" s="11"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
     </row>
     <row r="247" ht="20.2" customHeight="1">
-      <c r="A247" s="9">
+      <c r="A247" s="11">
         <v>245</v>
       </c>
-      <c r="B247" s="12"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
-      <c r="F247" s="13"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
     </row>
     <row r="248" ht="20.2" customHeight="1">
-      <c r="A248" s="9">
+      <c r="A248" s="11">
         <v>246</v>
       </c>
-      <c r="B248" s="10"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
-      <c r="F248" s="11"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
     </row>
     <row r="249" ht="20.2" customHeight="1">
-      <c r="A249" s="9">
+      <c r="A249" s="11">
         <v>247</v>
       </c>
-      <c r="B249" s="12"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="13"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
     </row>
     <row r="250" ht="20.2" customHeight="1">
-      <c r="A250" s="9">
+      <c r="A250" s="11">
         <v>248</v>
       </c>
-      <c r="B250" s="10"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
-      <c r="F250" s="11"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
     </row>
     <row r="251" ht="20.2" customHeight="1">
-      <c r="A251" s="9">
+      <c r="A251" s="11">
         <v>249</v>
       </c>
-      <c r="B251" s="12"/>
-      <c r="C251" s="13"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="13"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
     </row>
     <row r="252" ht="20.2" customHeight="1">
-      <c r="A252" s="9">
+      <c r="A252" s="11">
         <v>250</v>
       </c>
-      <c r="B252" s="10"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="11"/>
-      <c r="E252" s="11"/>
-      <c r="F252" s="11"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
     </row>
     <row r="253" ht="20.2" customHeight="1">
-      <c r="A253" s="9">
+      <c r="A253" s="11">
         <v>251</v>
       </c>
-      <c r="B253" s="12"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="13"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
     </row>
     <row r="254" ht="20.2" customHeight="1">
-      <c r="A254" s="9">
+      <c r="A254" s="11">
         <v>252</v>
       </c>
-      <c r="B254" s="10"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
-      <c r="F254" s="11"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
     </row>
     <row r="255" ht="20.2" customHeight="1">
-      <c r="A255" s="9">
+      <c r="A255" s="11">
         <v>253</v>
       </c>
-      <c r="B255" s="12"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
     </row>
     <row r="256" ht="20.2" customHeight="1">
-      <c r="A256" s="9">
+      <c r="A256" s="11">
         <v>254</v>
       </c>
-      <c r="B256" s="10"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
-      <c r="F256" s="11"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
     </row>
     <row r="257" ht="20.2" customHeight="1">
-      <c r="A257" s="9">
+      <c r="A257" s="11">
         <v>255</v>
       </c>
-      <c r="B257" s="12"/>
-      <c r="C257" s="13"/>
-      <c r="D257" s="13"/>
-      <c r="E257" s="13"/>
-      <c r="F257" s="13"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
     </row>
     <row r="258" ht="20.2" customHeight="1">
-      <c r="A258" s="9">
+      <c r="A258" s="11">
         <v>256</v>
       </c>
-      <c r="B258" s="10"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
-      <c r="F258" s="11"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
     </row>
     <row r="259" ht="20.2" customHeight="1">
-      <c r="A259" s="9">
+      <c r="A259" s="11">
         <v>257</v>
       </c>
-      <c r="B259" s="12"/>
-      <c r="C259" s="13"/>
-      <c r="D259" s="13"/>
-      <c r="E259" s="13"/>
-      <c r="F259" s="13"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="15"/>
     </row>
     <row r="260" ht="20.2" customHeight="1">
-      <c r="A260" s="9">
+      <c r="A260" s="11">
         <v>258</v>
       </c>
-      <c r="B260" s="10"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
-      <c r="F260" s="11"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
     </row>
     <row r="261" ht="20.2" customHeight="1">
-      <c r="A261" s="9">
+      <c r="A261" s="11">
         <v>259</v>
       </c>
-      <c r="B261" s="12"/>
-      <c r="C261" s="13"/>
-      <c r="D261" s="13"/>
-      <c r="E261" s="13"/>
-      <c r="F261" s="13"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="15"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="15"/>
     </row>
     <row r="262" ht="20.2" customHeight="1">
-      <c r="A262" s="9">
+      <c r="A262" s="11">
         <v>260</v>
       </c>
-      <c r="B262" s="10"/>
-      <c r="C262" s="11"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
-      <c r="F262" s="11"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
     </row>
     <row r="263" ht="20.2" customHeight="1">
-      <c r="A263" s="9">
+      <c r="A263" s="11">
         <v>261</v>
       </c>
-      <c r="B263" s="12"/>
-      <c r="C263" s="13"/>
-      <c r="D263" s="13"/>
-      <c r="E263" s="13"/>
-      <c r="F263" s="13"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
     </row>
     <row r="264" ht="20.2" customHeight="1">
-      <c r="A264" s="9">
+      <c r="A264" s="11">
         <v>262</v>
       </c>
-      <c r="B264" s="10"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
-      <c r="F264" s="11"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
     </row>
     <row r="265" ht="20.2" customHeight="1">
-      <c r="A265" s="9">
+      <c r="A265" s="11">
         <v>263</v>
       </c>
-      <c r="B265" s="12"/>
-      <c r="C265" s="13"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="13"/>
-      <c r="F265" s="13"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="15"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="15"/>
     </row>
     <row r="266" ht="20.2" customHeight="1">
-      <c r="A266" s="9">
+      <c r="A266" s="11">
         <v>264</v>
       </c>
-      <c r="B266" s="10"/>
-      <c r="C266" s="11"/>
-      <c r="D266" s="11"/>
-      <c r="E266" s="11"/>
-      <c r="F266" s="11"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
     </row>
     <row r="267" ht="20.2" customHeight="1">
-      <c r="A267" s="9">
+      <c r="A267" s="11">
         <v>265</v>
       </c>
-      <c r="B267" s="12"/>
-      <c r="C267" s="13"/>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13"/>
-      <c r="F267" s="13"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="15"/>
+      <c r="D267" s="15"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="15"/>
     </row>
     <row r="268" ht="20.2" customHeight="1">
-      <c r="A268" s="9">
+      <c r="A268" s="11">
         <v>266</v>
       </c>
-      <c r="B268" s="10"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="11"/>
-      <c r="E268" s="11"/>
-      <c r="F268" s="11"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
     </row>
     <row r="269" ht="20.2" customHeight="1">
-      <c r="A269" s="9">
+      <c r="A269" s="11">
         <v>267</v>
       </c>
-      <c r="B269" s="12"/>
-      <c r="C269" s="13"/>
-      <c r="D269" s="13"/>
-      <c r="E269" s="13"/>
-      <c r="F269" s="13"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="15"/>
+      <c r="D269" s="15"/>
+      <c r="E269" s="15"/>
+      <c r="F269" s="15"/>
     </row>
     <row r="270" ht="20.2" customHeight="1">
-      <c r="A270" s="9">
+      <c r="A270" s="11">
         <v>268</v>
       </c>
-      <c r="B270" s="10"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
-      <c r="E270" s="11"/>
-      <c r="F270" s="11"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="13"/>
     </row>
     <row r="271" ht="20.2" customHeight="1">
-      <c r="A271" s="9">
+      <c r="A271" s="11">
         <v>269</v>
       </c>
-      <c r="B271" s="12"/>
-      <c r="C271" s="13"/>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
-      <c r="F271" s="13"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="15"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="15"/>
     </row>
     <row r="272" ht="20.2" customHeight="1">
-      <c r="A272" s="9">
+      <c r="A272" s="11">
         <v>270</v>
       </c>
-      <c r="B272" s="10"/>
-      <c r="C272" s="11"/>
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
-      <c r="F272" s="11"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
     </row>
     <row r="273" ht="20.2" customHeight="1">
-      <c r="A273" s="9">
+      <c r="A273" s="11">
         <v>271</v>
       </c>
-      <c r="B273" s="12"/>
-      <c r="C273" s="13"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="13"/>
-      <c r="F273" s="13"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="15"/>
+      <c r="D273" s="15"/>
+      <c r="E273" s="15"/>
+      <c r="F273" s="15"/>
     </row>
     <row r="274" ht="20.2" customHeight="1">
-      <c r="A274" s="9">
+      <c r="A274" s="11">
         <v>272</v>
       </c>
-      <c r="B274" s="10"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
-      <c r="F274" s="11"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
     </row>
     <row r="275" ht="20.2" customHeight="1">
-      <c r="A275" s="9">
+      <c r="A275" s="11">
         <v>273</v>
       </c>
-      <c r="B275" s="12"/>
-      <c r="C275" s="13"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
-      <c r="F275" s="13"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="15"/>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="15"/>
     </row>
     <row r="276" ht="20.2" customHeight="1">
-      <c r="A276" s="9">
+      <c r="A276" s="11">
         <v>274</v>
       </c>
-      <c r="B276" s="10"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
-      <c r="E276" s="11"/>
-      <c r="F276" s="11"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="13"/>
     </row>
     <row r="277" ht="20.2" customHeight="1">
-      <c r="A277" s="9">
+      <c r="A277" s="11">
         <v>275</v>
       </c>
-      <c r="B277" s="12"/>
-      <c r="C277" s="13"/>
-      <c r="D277" s="13"/>
-      <c r="E277" s="13"/>
-      <c r="F277" s="13"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="15"/>
+      <c r="D277" s="15"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="15"/>
     </row>
     <row r="278" ht="20.2" customHeight="1">
-      <c r="A278" s="9">
+      <c r="A278" s="11">
         <v>276</v>
       </c>
-      <c r="B278" s="10"/>
-      <c r="C278" s="11"/>
-      <c r="D278" s="11"/>
-      <c r="E278" s="11"/>
-      <c r="F278" s="11"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="13"/>
     </row>
     <row r="279" ht="20.2" customHeight="1">
-      <c r="A279" s="9">
+      <c r="A279" s="11">
         <v>277</v>
       </c>
-      <c r="B279" s="12"/>
-      <c r="C279" s="13"/>
-      <c r="D279" s="13"/>
-      <c r="E279" s="13"/>
-      <c r="F279" s="13"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="15"/>
+      <c r="D279" s="15"/>
+      <c r="E279" s="15"/>
+      <c r="F279" s="15"/>
     </row>
     <row r="280" ht="20.2" customHeight="1">
-      <c r="A280" s="9">
+      <c r="A280" s="11">
         <v>278</v>
       </c>
-      <c r="B280" s="10"/>
-      <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
-      <c r="E280" s="11"/>
-      <c r="F280" s="11"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="13"/>
+      <c r="E280" s="13"/>
+      <c r="F280" s="13"/>
     </row>
     <row r="281" ht="20.2" customHeight="1">
-      <c r="A281" s="9">
+      <c r="A281" s="11">
         <v>279</v>
       </c>
-      <c r="B281" s="12"/>
-      <c r="C281" s="13"/>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13"/>
-      <c r="F281" s="13"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="15"/>
+      <c r="D281" s="15"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
     </row>
     <row r="282" ht="20.2" customHeight="1">
-      <c r="A282" s="9">
+      <c r="A282" s="11">
         <v>280</v>
       </c>
-      <c r="B282" s="10"/>
-      <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
-      <c r="E282" s="11"/>
-      <c r="F282" s="11"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="13"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="13"/>
     </row>
     <row r="283" ht="20.2" customHeight="1">
-      <c r="A283" s="9">
+      <c r="A283" s="11">
         <v>281</v>
       </c>
-      <c r="B283" s="12"/>
-      <c r="C283" s="13"/>
-      <c r="D283" s="13"/>
-      <c r="E283" s="13"/>
-      <c r="F283" s="13"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="15"/>
+      <c r="D283" s="15"/>
+      <c r="E283" s="15"/>
+      <c r="F283" s="15"/>
     </row>
     <row r="284" ht="20.2" customHeight="1">
-      <c r="A284" s="9">
+      <c r="A284" s="11">
         <v>282</v>
       </c>
-      <c r="B284" s="10"/>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
-      <c r="F284" s="11"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="13"/>
+      <c r="F284" s="13"/>
     </row>
     <row r="285" ht="20.2" customHeight="1">
-      <c r="A285" s="9">
+      <c r="A285" s="11">
         <v>283</v>
       </c>
-      <c r="B285" s="12"/>
-      <c r="C285" s="13"/>
-      <c r="D285" s="13"/>
-      <c r="E285" s="13"/>
-      <c r="F285" s="13"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="15"/>
+      <c r="D285" s="15"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="15"/>
     </row>
     <row r="286" ht="20.2" customHeight="1">
-      <c r="A286" s="9">
+      <c r="A286" s="11">
         <v>284</v>
       </c>
-      <c r="B286" s="10"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
-      <c r="E286" s="11"/>
-      <c r="F286" s="11"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
     </row>
     <row r="287" ht="20.2" customHeight="1">
-      <c r="A287" s="9">
+      <c r="A287" s="11">
         <v>285</v>
       </c>
-      <c r="B287" s="12"/>
-      <c r="C287" s="13"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
-      <c r="F287" s="13"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="15"/>
+      <c r="D287" s="15"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="15"/>
     </row>
     <row r="288" ht="20.2" customHeight="1">
-      <c r="A288" s="9">
+      <c r="A288" s="11">
         <v>286</v>
       </c>
-      <c r="B288" s="10"/>
-      <c r="C288" s="11"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
-      <c r="F288" s="11"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
     </row>
     <row r="289" ht="20.2" customHeight="1">
-      <c r="A289" s="9">
+      <c r="A289" s="11">
         <v>287</v>
       </c>
-      <c r="B289" s="12"/>
-      <c r="C289" s="13"/>
-      <c r="D289" s="13"/>
-      <c r="E289" s="13"/>
-      <c r="F289" s="13"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="15"/>
+      <c r="D289" s="15"/>
+      <c r="E289" s="15"/>
+      <c r="F289" s="15"/>
     </row>
     <row r="290" ht="20.2" customHeight="1">
-      <c r="A290" s="9">
+      <c r="A290" s="11">
         <v>288</v>
       </c>
-      <c r="B290" s="10"/>
-      <c r="C290" s="11"/>
-      <c r="D290" s="11"/>
-      <c r="E290" s="11"/>
-      <c r="F290" s="11"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
     </row>
     <row r="291" ht="20.2" customHeight="1">
-      <c r="A291" s="9">
+      <c r="A291" s="11">
         <v>289</v>
       </c>
-      <c r="B291" s="12"/>
-      <c r="C291" s="13"/>
-      <c r="D291" s="13"/>
-      <c r="E291" s="13"/>
-      <c r="F291" s="13"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="15"/>
+      <c r="D291" s="15"/>
+      <c r="E291" s="15"/>
+      <c r="F291" s="15"/>
     </row>
     <row r="292" ht="20.2" customHeight="1">
-      <c r="A292" s="9">
+      <c r="A292" s="11">
         <v>290</v>
       </c>
-      <c r="B292" s="10"/>
-      <c r="C292" s="11"/>
-      <c r="D292" s="11"/>
-      <c r="E292" s="11"/>
-      <c r="F292" s="11"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="13"/>
     </row>
     <row r="293" ht="20.2" customHeight="1">
-      <c r="A293" s="9">
+      <c r="A293" s="11">
         <v>291</v>
       </c>
-      <c r="B293" s="12"/>
-      <c r="C293" s="13"/>
-      <c r="D293" s="13"/>
-      <c r="E293" s="13"/>
-      <c r="F293" s="13"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="15"/>
+      <c r="D293" s="15"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="15"/>
     </row>
     <row r="294" ht="20.2" customHeight="1">
-      <c r="A294" s="9">
+      <c r="A294" s="11">
         <v>292</v>
       </c>
-      <c r="B294" s="10"/>
-      <c r="C294" s="11"/>
-      <c r="D294" s="11"/>
-      <c r="E294" s="11"/>
-      <c r="F294" s="11"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
     </row>
     <row r="295" ht="20.2" customHeight="1">
-      <c r="A295" s="9">
+      <c r="A295" s="11">
         <v>293</v>
       </c>
-      <c r="B295" s="12"/>
-      <c r="C295" s="13"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
-      <c r="F295" s="13"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="15"/>
+      <c r="D295" s="15"/>
+      <c r="E295" s="15"/>
+      <c r="F295" s="15"/>
     </row>
     <row r="296" ht="20.2" customHeight="1">
-      <c r="A296" s="9">
+      <c r="A296" s="11">
         <v>294</v>
       </c>
-      <c r="B296" s="10"/>
-      <c r="C296" s="11"/>
-      <c r="D296" s="11"/>
-      <c r="E296" s="11"/>
-      <c r="F296" s="11"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
     </row>
     <row r="297" ht="20.2" customHeight="1">
-      <c r="A297" s="9">
+      <c r="A297" s="11">
         <v>295</v>
       </c>
-      <c r="B297" s="12"/>
-      <c r="C297" s="13"/>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
-      <c r="F297" s="13"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="15"/>
+      <c r="D297" s="15"/>
+      <c r="E297" s="15"/>
+      <c r="F297" s="15"/>
     </row>
     <row r="298" ht="20.2" customHeight="1">
-      <c r="A298" s="9">
+      <c r="A298" s="11">
         <v>296</v>
       </c>
-      <c r="B298" s="10"/>
-      <c r="C298" s="11"/>
-      <c r="D298" s="11"/>
-      <c r="E298" s="11"/>
-      <c r="F298" s="11"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="13"/>
     </row>
     <row r="299" ht="20.2" customHeight="1">
-      <c r="A299" s="9">
+      <c r="A299" s="11">
         <v>297</v>
       </c>
-      <c r="B299" s="12"/>
-      <c r="C299" s="13"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="13"/>
-      <c r="F299" s="13"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="15"/>
+      <c r="D299" s="15"/>
+      <c r="E299" s="15"/>
+      <c r="F299" s="15"/>
     </row>
     <row r="300" ht="20.2" customHeight="1">
-      <c r="A300" s="9">
+      <c r="A300" s="11">
         <v>298</v>
       </c>
-      <c r="B300" s="10"/>
-      <c r="C300" s="11"/>
-      <c r="D300" s="11"/>
-      <c r="E300" s="11"/>
-      <c r="F300" s="11"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
     </row>
     <row r="301" ht="20.2" customHeight="1">
-      <c r="A301" s="9">
+      <c r="A301" s="11">
         <v>299</v>
       </c>
-      <c r="B301" s="12"/>
-      <c r="C301" s="13"/>
-      <c r="D301" s="13"/>
-      <c r="E301" s="13"/>
-      <c r="F301" s="13"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="15"/>
+      <c r="D301" s="15"/>
+      <c r="E301" s="15"/>
+      <c r="F301" s="15"/>
     </row>
     <row r="302" ht="20.2" customHeight="1">
-      <c r="A302" s="9">
+      <c r="A302" s="11">
         <v>300</v>
       </c>
-      <c r="B302" s="10"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
-      <c r="F302" s="11"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
     </row>
     <row r="303" ht="20.2" customHeight="1">
-      <c r="A303" s="9">
+      <c r="A303" s="11">
         <v>301</v>
       </c>
-      <c r="B303" s="12"/>
-      <c r="C303" s="13"/>
-      <c r="D303" s="13"/>
-      <c r="E303" s="13"/>
-      <c r="F303" s="13"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="15"/>
+      <c r="D303" s="15"/>
+      <c r="E303" s="15"/>
+      <c r="F303" s="15"/>
     </row>
     <row r="304" ht="20.2" customHeight="1">
-      <c r="A304" s="9">
+      <c r="A304" s="11">
         <v>302</v>
       </c>
-      <c r="B304" s="10"/>
-      <c r="C304" s="11"/>
-      <c r="D304" s="11"/>
-      <c r="E304" s="11"/>
-      <c r="F304" s="11"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
     </row>
     <row r="305" ht="20.2" customHeight="1">
-      <c r="A305" s="9">
+      <c r="A305" s="11">
         <v>303</v>
       </c>
-      <c r="B305" s="12"/>
-      <c r="C305" s="13"/>
-      <c r="D305" s="13"/>
-      <c r="E305" s="13"/>
-      <c r="F305" s="13"/>
+      <c r="B305" s="14"/>
+      <c r="C305" s="15"/>
+      <c r="D305" s="15"/>
+      <c r="E305" s="15"/>
+      <c r="F305" s="15"/>
     </row>
     <row r="306" ht="20.2" customHeight="1">
-      <c r="A306" s="9">
+      <c r="A306" s="11">
         <v>304</v>
       </c>
-      <c r="B306" s="10"/>
-      <c r="C306" s="11"/>
-      <c r="D306" s="11"/>
-      <c r="E306" s="11"/>
-      <c r="F306" s="11"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
     </row>
     <row r="307" ht="20.2" customHeight="1">
-      <c r="A307" s="9">
+      <c r="A307" s="11">
         <v>305</v>
       </c>
-      <c r="B307" s="12"/>
-      <c r="C307" s="13"/>
-      <c r="D307" s="13"/>
-      <c r="E307" s="13"/>
-      <c r="F307" s="13"/>
+      <c r="B307" s="14"/>
+      <c r="C307" s="15"/>
+      <c r="D307" s="15"/>
+      <c r="E307" s="15"/>
+      <c r="F307" s="15"/>
     </row>
     <row r="308" ht="20.2" customHeight="1">
-      <c r="A308" s="9">
+      <c r="A308" s="11">
         <v>306</v>
       </c>
-      <c r="B308" s="10"/>
-      <c r="C308" s="11"/>
-      <c r="D308" s="11"/>
-      <c r="E308" s="11"/>
-      <c r="F308" s="11"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="13"/>
+      <c r="E308" s="13"/>
+      <c r="F308" s="13"/>
     </row>
     <row r="309" ht="20.2" customHeight="1">
-      <c r="A309" s="9">
+      <c r="A309" s="11">
         <v>307</v>
       </c>
-      <c r="B309" s="12"/>
-      <c r="C309" s="13"/>
-      <c r="D309" s="13"/>
-      <c r="E309" s="13"/>
-      <c r="F309" s="13"/>
+      <c r="B309" s="14"/>
+      <c r="C309" s="15"/>
+      <c r="D309" s="15"/>
+      <c r="E309" s="15"/>
+      <c r="F309" s="15"/>
     </row>
     <row r="310" ht="20.2" customHeight="1">
-      <c r="A310" s="9">
+      <c r="A310" s="11">
         <v>308</v>
       </c>
-      <c r="B310" s="10"/>
-      <c r="C310" s="11"/>
-      <c r="D310" s="11"/>
-      <c r="E310" s="11"/>
-      <c r="F310" s="11"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
     </row>
     <row r="311" ht="20.2" customHeight="1">
-      <c r="A311" s="9">
+      <c r="A311" s="11">
         <v>309</v>
       </c>
-      <c r="B311" s="12"/>
-      <c r="C311" s="13"/>
-      <c r="D311" s="13"/>
-      <c r="E311" s="13"/>
-      <c r="F311" s="13"/>
+      <c r="B311" s="14"/>
+      <c r="C311" s="15"/>
+      <c r="D311" s="15"/>
+      <c r="E311" s="15"/>
+      <c r="F311" s="15"/>
     </row>
     <row r="312" ht="20.2" customHeight="1">
-      <c r="A312" s="9">
+      <c r="A312" s="11">
         <v>310</v>
       </c>
-      <c r="B312" s="10"/>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
-      <c r="F312" s="11"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
     </row>
     <row r="313" ht="20.2" customHeight="1">
-      <c r="A313" s="9">
+      <c r="A313" s="11">
         <v>311</v>
       </c>
-      <c r="B313" s="12"/>
-      <c r="C313" s="13"/>
-      <c r="D313" s="13"/>
-      <c r="E313" s="13"/>
-      <c r="F313" s="13"/>
+      <c r="B313" s="14"/>
+      <c r="C313" s="15"/>
+      <c r="D313" s="15"/>
+      <c r="E313" s="15"/>
+      <c r="F313" s="15"/>
     </row>
     <row r="314" ht="20.2" customHeight="1">
-      <c r="A314" s="9">
+      <c r="A314" s="11">
         <v>312</v>
       </c>
-      <c r="B314" s="10"/>
-      <c r="C314" s="11"/>
-      <c r="D314" s="11"/>
-      <c r="E314" s="11"/>
-      <c r="F314" s="11"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
     </row>
     <row r="315" ht="20.2" customHeight="1">
-      <c r="A315" s="9">
+      <c r="A315" s="11">
         <v>313</v>
       </c>
-      <c r="B315" s="12"/>
-      <c r="C315" s="13"/>
-      <c r="D315" s="13"/>
-      <c r="E315" s="13"/>
-      <c r="F315" s="13"/>
+      <c r="B315" s="14"/>
+      <c r="C315" s="15"/>
+      <c r="D315" s="15"/>
+      <c r="E315" s="15"/>
+      <c r="F315" s="15"/>
     </row>
     <row r="316" ht="20.2" customHeight="1">
-      <c r="A316" s="9">
+      <c r="A316" s="11">
         <v>314</v>
       </c>
-      <c r="B316" s="10"/>
-      <c r="C316" s="11"/>
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
-      <c r="F316" s="11"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
     </row>
     <row r="317" ht="20.2" customHeight="1">
-      <c r="A317" s="9">
+      <c r="A317" s="11">
         <v>315</v>
       </c>
-      <c r="B317" s="12"/>
-      <c r="C317" s="13"/>
-      <c r="D317" s="13"/>
-      <c r="E317" s="13"/>
-      <c r="F317" s="13"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="15"/>
+      <c r="D317" s="15"/>
+      <c r="E317" s="15"/>
+      <c r="F317" s="15"/>
     </row>
     <row r="318" ht="20.2" customHeight="1">
-      <c r="A318" s="9">
+      <c r="A318" s="11">
         <v>316</v>
       </c>
-      <c r="B318" s="10"/>
-      <c r="C318" s="11"/>
-      <c r="D318" s="11"/>
-      <c r="E318" s="11"/>
-      <c r="F318" s="11"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="13"/>
     </row>
     <row r="319" ht="20.2" customHeight="1">
-      <c r="A319" s="9">
+      <c r="A319" s="11">
         <v>317</v>
       </c>
-      <c r="B319" s="12"/>
-      <c r="C319" s="13"/>
-      <c r="D319" s="13"/>
-      <c r="E319" s="13"/>
-      <c r="F319" s="13"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="15"/>
+      <c r="D319" s="15"/>
+      <c r="E319" s="15"/>
+      <c r="F319" s="15"/>
     </row>
     <row r="320" ht="20.2" customHeight="1">
-      <c r="A320" s="9">
+      <c r="A320" s="11">
         <v>318</v>
       </c>
-      <c r="B320" s="10"/>
-      <c r="C320" s="11"/>
-      <c r="D320" s="11"/>
-      <c r="E320" s="11"/>
-      <c r="F320" s="11"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="13"/>
     </row>
     <row r="321" ht="20.2" customHeight="1">
-      <c r="A321" s="9">
+      <c r="A321" s="11">
         <v>319</v>
       </c>
-      <c r="B321" s="12"/>
-      <c r="C321" s="13"/>
-      <c r="D321" s="13"/>
-      <c r="E321" s="13"/>
-      <c r="F321" s="13"/>
+      <c r="B321" s="14"/>
+      <c r="C321" s="15"/>
+      <c r="D321" s="15"/>
+      <c r="E321" s="15"/>
+      <c r="F321" s="15"/>
     </row>
     <row r="322" ht="20.2" customHeight="1">
-      <c r="A322" s="9">
+      <c r="A322" s="11">
         <v>320</v>
       </c>
-      <c r="B322" s="10"/>
-      <c r="C322" s="11"/>
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
-      <c r="F322" s="11"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13"/>
+      <c r="F322" s="13"/>
     </row>
     <row r="323" ht="20.2" customHeight="1">
-      <c r="A323" s="9">
+      <c r="A323" s="11">
         <v>321</v>
       </c>
-      <c r="B323" s="12"/>
-      <c r="C323" s="13"/>
-      <c r="D323" s="13"/>
-      <c r="E323" s="13"/>
-      <c r="F323" s="13"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="15"/>
+      <c r="D323" s="15"/>
+      <c r="E323" s="15"/>
+      <c r="F323" s="15"/>
     </row>
     <row r="324" ht="20.2" customHeight="1">
-      <c r="A324" s="9">
+      <c r="A324" s="11">
         <v>322</v>
       </c>
-      <c r="B324" s="10"/>
-      <c r="C324" s="11"/>
-      <c r="D324" s="11"/>
-      <c r="E324" s="11"/>
-      <c r="F324" s="11"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="13"/>
+      <c r="E324" s="13"/>
+      <c r="F324" s="13"/>
     </row>
     <row r="325" ht="20.2" customHeight="1">
-      <c r="A325" s="9">
+      <c r="A325" s="11">
         <v>323</v>
       </c>
-      <c r="B325" s="12"/>
-      <c r="C325" s="13"/>
-      <c r="D325" s="13"/>
-      <c r="E325" s="13"/>
-      <c r="F325" s="13"/>
+      <c r="B325" s="14"/>
+      <c r="C325" s="15"/>
+      <c r="D325" s="15"/>
+      <c r="E325" s="15"/>
+      <c r="F325" s="15"/>
     </row>
     <row r="326" ht="20.2" customHeight="1">
-      <c r="A326" s="9">
+      <c r="A326" s="11">
         <v>324</v>
       </c>
-      <c r="B326" s="10"/>
-      <c r="C326" s="11"/>
-      <c r="D326" s="11"/>
-      <c r="E326" s="11"/>
-      <c r="F326" s="11"/>
+      <c r="B326" s="12"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
